--- a/表2.xlsx
+++ b/表2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shibu\Desktop\HI-kiyo_yomei-shimadu-paper\submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29323FD-7B40-43BB-9570-395E92B50858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C428E80B-6651-4DDC-8D16-A61B8214BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="3" r:id="rId1"/>
@@ -379,22 +379,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>正慶2（1333）年潤2月19日</t>
-    <rPh sb="9" eb="10">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ウルウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>建武2（1335）年3月11日</t>
     <rPh sb="9" eb="10">
       <t>ネン</t>
@@ -527,6 +511,10 @@
     <rPh sb="27" eb="28">
       <t>シメ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正慶2（1333）年閏2月19日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1028,10 +1016,10 @@
   <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1097,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="10">
         <v>59</v>
@@ -1421,7 +1409,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>32</v>
@@ -1456,7 +1444,7 @@
         <v>48</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>32</v>
@@ -1488,10 +1476,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
@@ -1523,10 +1511,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>32</v>
@@ -1558,10 +1546,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>32</v>
@@ -1593,10 +1581,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>32</v>
@@ -1628,7 +1616,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>16</v>
@@ -1663,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>16</v>
@@ -1698,7 +1686,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="1" t="s">
@@ -1727,7 +1715,7 @@
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="1" t="s">
@@ -1756,7 +1744,7 @@
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="1" t="s">
@@ -1783,7 +1771,7 @@
     </row>
     <row r="23" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
